--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이야퍄들라"]  하지만 로도스 아일랜드에 온 뒤로는 함선에 있거나 가끔 외출할 때 뭘 하든 확실히 편해졌어요.
+    <t xml:space="preserve">[name="에이야퍄들라"]  하지만 로도스 아일랜드에 온 뒤로는 함선에 있거나 가끔 외근할 때 뭘 하든 확실히 편해졌어요.
 </t>
   </si>
   <si>
@@ -2652,7 +2652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메딕 오퍼레이터"]  어? 실론 씨, 당신도 우리 의료팀 일원이면서, 어떻게 환자가 제멋대로 하려는데 그냥 놔둘 수 있죠?
+    <t xml:space="preserve">[name="메딕 오퍼레이터"]  어? 실론 씨, 당신도 우리 의료부 일원이면서, 어떻게 환자가 제멋대로 하려는데 그냥 놔둘 수 있죠?
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
@@ -1636,7 +1636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eyjafjalla"]  Continuing recording... The current time is 12:25 PM, and we're moving towards the last sampling site.
+    <t xml:space="preserve">[name="Eyjafjalla"]  Continuing recording... The current time is 12:25 P.M., and we're moving towards the last sampling site.
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eyjafjalla"]  The time is now 3:14 PM. Data collection and analysis are progressing steadily.
+    <t xml:space="preserve">[name="Eyjafjalla"]  The time is now 3:14 P.M. Data collection and analysis are progressing steadily.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_1_1.xlsx
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="バティ"]  確かに企業だからな、稼ぐのは必要なことだが……金ではかれないってものもあるんだよ。
+    <t xml:space="preserve">[name="バティ"]  確かに企業だからな、稼ぐのは必要なことだが……金じゃはかれないものもあるんだよ。
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ガイド"]  おい、今の石が俺に向かって飛んでこなかったか？　てっきり頭を潰されるかと思ったぜ。
+    <t xml:space="preserve">[name="ガイド"]  おい、今のでかい石、俺に向かって飛んできてなかったか？　てっきり頭を潰されるかと思ったぜ。
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ガイド"]  火山が噴火したのかよ！？　俺はい、イヤだ！　こんな死に方はイヤだ！　頼む、助けてくれ！
+    <t xml:space="preserve">[name="ガイド"]  火山が噴火したのかよ！？　俺は、い、イヤだ！　こんな死に方はイヤだ！　頼む、助けてくれ！
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="バティ"]  表面的なものじゃなくて、その中の真意を見抜くことができる。
+    <t xml:space="preserve">[name="バティ"]  表面的なものに囚われず、その中の真意を見抜くことができる。
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이야퍄들라"]  음……. 저기, 발티 씨…… 가이드 님이 계속 고집하면 우리도 그의 감사는 받도록 하죠.
+    <t xml:space="preserve">[name="에이야퍄들라"]  음…… 저기, 발티 씨…… 가이드 님이 계속 고집하면 우리도 그의 감사는 받도록 하죠.
 </t>
   </si>
   <si>
